--- a/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_appetizers.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_appetizers.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656495-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Gluten-Free Appetizers</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656499-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zGgmUhBeccGL2dTHbYTKT96LJFM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4564526-4072a095921b4828be2a75d15602dd5c.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260696/cauliflower-pizza-bites/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cauliflower Pizza Bites</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large head cauliflower, cut into large chunks\n\n\n2 ½ cups shredded mozzarella cheese, divided\n\n\n½ cup freshly grated Parmesan cheese\n\n\n1 large egg\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon garlic powder\n\n\n¼ teaspoon onion powder\n\n\n⅓ cup pizza sauce"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large head cauliflower, cut into large chunks\n\n\n2 ½ cups shredded mozzarella cheese, divided\n\n\n½ cup freshly grated Parmesan cheese\n\n\n1 large egg\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n¼ teaspoon garlic powder\n\n\n¼ teaspoon onion powder\n\n\n⅓ cup pizza sauce'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Line a muffin tin with parchment paper squares."},{"recipe_directions":"Grate cauliflower into a microwave-safe bowl using a fine grater. Chop any remaining pieces too small to grate and add to the bowl."},{"recipe_directions":"Cook in the microwave until cauliflower is soft and tender, 4 to 6 minutes. Pour into a clean dish towel and let cool enough to handle, 15 to 20 minutes."},{"recipe_directions":"Wrap the towel around cauliflower and squeeze out as much liquid as possible; the drier, the better."},{"recipe_directions":"Combine squeezed cauliflower, 1 cup mozzarella cheese, Parmesan cheese, egg, salt, pepper, garlic powder, and onion powder in a large bowl until well combined. Scoop evenly into the prepared muffin cups. Pat down cauliflower mixture with the back of a spoon, making it compact."},{"recipe_directions":"Bake in the preheated oven until crust is golden brown, about 15 minutes. Remove from the oven and spoon pizza sauce evenly onto each crust. Top with remaining 1 1/2 cups mozzarella cheese."},{"recipe_directions":"Return to the oven and bake until cheese is melted and golden brown, about 15 minutes. Let pizza bites sit in the pan for 5 minutes before removing to a wire rack to cool for 10 minutes. Remove parchment paper from the bottoms and arrange bites on a platter."},{"recipe_directions":"You can use a food processor to chop the cauliflower. Add small cauliflower chunks to the bowl and process until fine."},{"recipe_directions":"You can add your favorite pizza toppings, chopped into small pieces, in step 8."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Cheese"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"101\nCalories\n\n\n5g \nFat\n\n\n5g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656505-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_kmmrn2xQfQEtbKkeCa2d0szV3c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6061537-keto-crackers-France-C-4x3-1-1cb1850a3c8e4007ad506f1217374b41.jpg"
@@ -269,59 +606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265673/keto-crackers/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Keto Crackers</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n40 \n\n\nYield:\n40 crackers"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup shredded mozzarella cheese\n\n\n⅓ cup finely ground almond flour\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n1 large egg yolk"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup shredded mozzarella cheese\n\n\n⅓ cup finely ground almond flour\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n1 large egg yolk'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine mozzarella cheese, almond flour, garlic powder, and salt in a microwave-safe bowl. Heat in the microwave for 30 seconds."},{"recipe_directions":"Use your hands to knead mozzarella dough until fully mixed. Add egg yolk and continue kneading until completely blended into dough."},{"recipe_directions":"Lay a piece of parchment paper on a flat surface and place dough on top. Place a second piece of parchment paper on top of dough. Press down on dough with your hands until ready for a rolling pin."},{"recipe_directions":"Roll into a very thin rectangle with even sides. Gently poke holes in dough using a fork to prevent it from bubbling while baking. Cut dough into 1-inch squares with a knife."},{"recipe_directions":"Lay squares on the prepared baking sheet, leaving a little space between them"},{"recipe_directions":"Bake in the preheated oven for 5 to 6 minutes. Remove the baking sheet from the oven and turn crackers over. Continue baking until lightly browned and crisp, about 2 more minutes. Watch them closely to prevent burning."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"11\nCalories\n\n\n1g \nFat\n\n\n0g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656510-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JHnHof0e-5BvTdNBrG5_BOOUATs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/326989-0902737412ae400da3528b8c00d159f7.jpg"
@@ -334,59 +667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/159505/bacon-popcorn/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Bacon Popcorn</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n10 \n\n\nYield:\n10 cups"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup bacon grease\n\n\n¾ cup unpopped popcorn kernels\n\n\n½ teaspoon seasoned salt, or to taste\n\n\n3 tablespoons bacon bits (Optional)\n\n\n1 cup shredded Cheddar cheese (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup bacon grease\n\n\n¾ cup unpopped popcorn kernels\n\n\n½ teaspoon seasoned salt, or to taste\n\n\n3 tablespoons bacon bits (Optional)\n\n\n1 cup shredded Cheddar cheese (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon grease into a 6-quart pot and place over high heat. Add one or two popcorn kernels as testers. When test kernels pop, add remaining popcorn kernels and cover with a lid. As kernels start to pop, shake the pan back and forth constantly to keep unpopped kernels on the bottom. When popping slows down, remove the pan from heat and let it finish popping."},{"recipe_directions":"Pour popcorn into a large bowl or paper sack. Season with 1/2 of the seasoned salt and stir. Taste before adding more salt if desired. Toss with bacon bits and shredded Cheddar cheese for an extra special treat. Store leftovers in lunch sacks or sandwich bags."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Popcorn Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"216\nCalories\n\n\n17g \nFat\n\n\n11g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656515-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aufD5Hi_1RlpPYK8yIlIJT2EJ5E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(659x884:661x886):format(webp)/18509-tapenade-roqwoods-4x3-1-e5ad0367f244424889c71a2bd15180e6.jpg"
@@ -400,59 +729,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14849/tapenade/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Tapenade</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¾ cups whole, pitted kalamata olives\n\n\n1 (2 ounce) can anchovy fillets, rinsed\n\n\n3 tablespoons lemon juice\n\n\n2 tablespoons capers\n\n\n1 clove garlic, chopped\n\n\n1 teaspoon chopped fresh thyme\n\n\n1 teaspoon chopped fresh rosemary\n\n\n4 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¾ cups whole, pitted kalamata olives\n\n\n1 (2 ounce) can anchovy fillets, rinsed\n\n\n3 tablespoons lemon juice\n\n\n2 tablespoons capers\n\n\n1 clove garlic, chopped\n\n\n1 teaspoon chopped fresh thyme\n\n\n1 teaspoon chopped fresh rosemary\n\n\n4 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place olives, anchovies, lemon juice, capers, garlic, thyme, and rosemary into a blender. Turn the blender on; drizzle in olive oil until a thick, chunky paste is formed, about 5 seconds."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"210\nCalories\n\n\n20g \nFat\n\n\n5g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656520-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WH_dHkaMMFWgKGA6deEVRRZxefM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5759548-zucchini-nachos-France-C-4x3-1-078b4772c4c24ca3955e24ec793681f6.jpg"
@@ -466,59 +791,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268088/zucchini-nachos/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Zucchini Nachos</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 medium zucchini\n\n\n½ teaspoon salt\n\n\n1 tablespoon olive oil\n\n\n½ medium onion, finely chopped\n\n\n1 pound lean ground chicken\n\n\n1 teaspoon chili powder\n\n\n½ teaspoon paprika\n\n\n½ teaspoon cumin\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon salt\n\n\n¼ teaspoon oregano\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups shredded Cheddar cheese\n\n\n½ cup low-fat sour cream\n\n\n½ cup pico de gallo\n\n\n1  jalapeno pepper, thinly sliced (Optional)\n\n\n3  green onions, green parts chopped"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 medium zucchini\n\n\n½ teaspoon salt\n\n\n1 tablespoon olive oil\n\n\n½ medium onion, finely chopped\n\n\n1 pound lean ground chicken\n\n\n1 teaspoon chili powder\n\n\n½ teaspoon paprika\n\n\n½ teaspoon cumin\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon salt\n\n\n¼ teaspoon oregano\n\n\n¼ teaspoon ground black pepper\n\n\n2 cups shredded Cheddar cheese\n\n\n½ cup low-fat sour cream\n\n\n½ cup pico de gallo\n\n\n1  jalapeno pepper, thinly sliced (Optional)\n\n\n3  green onions, green parts chopped'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut zucchini into 1/4-inch slices using a mandoline slicer. Place slices in a colander, sprinkle with salt, and toss to coat. Let drain for 30 minutes. Place slices on a clean kitchen towel and pat dry."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a 12x18-inch baking sheet with parchment paper."},{"recipe_directions":"Heat oil in a skillet over medium-high heat. Add onion and saute until translucent, 2 to 3 minutes. Add chicken and cook until lightly browned, breaking meat up into small crumbles, 5 to 6 minutes. Drain and discard any accumulated liquid."},{"recipe_directions":"Return skillet to low heat and stir in chili powder, paprika, cumin, garlic powder, salt, oregano, and black pepper. Keep warm."},{"recipe_directions":"Place zucchini slices on the prepared baking pan in a single layer."},{"recipe_directions":"Bake in the preheated oven for 5 minutes."},{"recipe_directions":"Remove zucchini from oven and top with chicken mixture and shredded Cheddar cheese. Return to the hot oven and bake until cheese is melted, 2 to 3 minutes more."},{"recipe_directions":"Top nachos with dollops of sour cream, pico de gallo, jalapeno, and green onions. Serve immediately."},{"recipe_directions":"I try and find medium zucchini that are approximately 2 inches in diameter and 10 to 12 ounces each."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Vegetable"},{"recipe_tags":"Zucchini Appetizer Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"311\nCalories\n\n\n18g \nFat\n\n\n7g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656525-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6ZL8ylpIrLkpeOEokHGRG1QEXA4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2277562-b76dfa72f1294d74bc565c578d8704b2.jpg"
@@ -531,59 +852,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242474/vanilla-coconut-flour-cupcakes/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Vanilla Coconut Flour Cupcakes</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n10 \n\n\nYield:\n10 cupcakes"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large eggs, cracked into a bowl and whisked to combine\n\n\n⅔ cup sugar\n\n\n½ cup vegetable oil\n\n\n2 teaspoons gluten-free vanilla extract\n\n\n½ teaspoon salt\n\n\n2 tablespoons milk\n\n\n½ cup King Arthur Coconut Flour\n\n\n1 teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large eggs, cracked into a bowl and whisked to combine\n\n\n⅔ cup sugar\n\n\n½ cup vegetable oil\n\n\n2 teaspoons gluten-free vanilla extract\n\n\n½ teaspoon salt\n\n\n2 tablespoons milk\n\n\n½ cup King Arthur Coconut Flour\n\n\n1 teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Place an oven rack in the center position. Line a 12-cup muffin pan with 10 paper liners; grease the liners for guaranteed crumble-free cupcakes."},{"recipe_directions":"Beat together eggs, sugar, oil, vanilla, and salt in a large bowl. Add milk; whisk until smooth. Sift together coconut flour and baking powder in a separate bowl. Add flour mixture to egg mixture; stir to combine. Divide batter among the prepared liners, filling each 3/4 full."},{"recipe_directions":"Bake in the preheated oven on the center rack until a toothpick inserted into the center of a cupcake comes out clean, 18 to 20 minutes,"},{"recipe_directions":"Allow cupcakes to cool in the pan for 5 minutes, then turn them out onto a wired rack to cool completely. Frost cooled cupcakes with your favorite frosting."},{"recipe_directions":"Melted butter can be substituted for vegetable oil."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"218\nCalories\n\n\n15g \nFat\n\n\n17g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656530-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ueSEjIue2XZHLkN5tdhtZRTGDyQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Pineapple-Cheese-Ball-1x1-1-2000-d1a6a02e25e24703bf1a218218b95a9e.jpg"
@@ -597,59 +914,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14916/pineapple-cheese-ball/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Pineapple Cheese Ball</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cheese balls"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (20 ounce) can crushed pineapple, drained\n\n\n2 (8 ounce) packages cream cheese, softened\n\n\n1 cup minced celery\n\n\n½ cup chopped green bell pepper\n\n\n1 teaspoon minced onion\n\n\n1 cup chopped pecans"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (20 ounce) can crushed pineapple, drained\n\n\n2 (8 ounce) packages cream cheese, softened\n\n\n1 cup minced celery\n\n\n½ cup chopped green bell pepper\n\n\n1 teaspoon minced onion\n\n\n1 cup chopped pecans'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix drained pineapple, cream cheese, celery, bell pepper, and onion together in a medium bowl until well combined; divide mixture in half and form two balls."},{"recipe_directions":"Place chopped pecans in a shallow dish; roll each ball in pecans. Chill until ready to serve, at least 2 hours."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"},{"recipe_tags":"Cheese Ball Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n15g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656536-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p5mot7pXNPApvWFqd3B-zgJfr9Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(319x0:321x2):format(webp)/image-298-9ea0164f6701476d96dacf960f3e9aa9.jpg"
@@ -663,59 +976,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254452/chef-johns-chocolate-energy-bars/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Chef John's Chocolate Energy Bars</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs 45 mins\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n12 \n\n\nYield:\n12 bars"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups pitted Medjool dates, roughly chopped\n\n\n2 cups raw cashews\n\n\n1 cup raw or roasted unsalted almonds\n\n\n¾ cup high-quality unsweetened cocoa powder (such as Guittard® Cocoa Rouge)\n\n\n2 tablespoons coconut oil, melted\n\n\n½ cup unsweetened shredded coconut\n\n\n2 teaspoons vanilla extract\n\n\n1 tablespoon cold espresso, or more as needed (or water)\n\n\n½ teaspoon kosher salt\n\n\n½ pinch cayenne pepper"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups pitted Medjool dates, roughly chopped\n\n\n2 cups raw cashews\n\n\n1 cup raw or roasted unsalted almonds\n\n\n¾ cup high-quality unsweetened cocoa powder (such as Guittard® Cocoa Rouge)\n\n\n2 tablespoons coconut oil, melted\n\n\n½ cup unsweetened shredded coconut\n\n\n2 teaspoons vanilla extract\n\n\n1 tablespoon cold espresso, or more as needed (or water)\n\n\n½ teaspoon kosher salt\n\n\n½ pinch cayenne pepper'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cashews, almonds, coconut, dates, cocoa, coconut oil, vanilla, cold coffee, cayenne and salt in the bowl of a food processor. Pulse on and off to start. Process about 1 minute; check to ensure mixture is sticky and moist enough to stick together. Add more coffee if needed. Continue to process until mixture becomes a chunky mass."},{"recipe_directions":"Line a baking pan with plastic wrap. Scoop mixture into pan. Press down with a spatula until mixture is even. Place a layer of plastic wrap on the surface and smooth again with your hands."},{"recipe_directions":"Refrigerate until cold and firm, 2 or 3 hours."},{"recipe_directions":"Remove from the pan and unwrap. Cut into bars of your preferred size. Store in a zip top back in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Granola Bar Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"343\nCalories\n\n\n22g \nFat\n\n\n36g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656541-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zMgpRvfAdCvJiW3h9sCWpmc8Tqs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4542583-b8250d0376524a67899361ab07352f20.jpg"
@@ -728,59 +1037,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256723/baked-bananas/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Baked Bananas</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n4  firm bananas, peeled and halved lengthwise\n\n\n¼ cup maple syrup (Optional)\n\n\n1 tablespoon ground cinnamon\n\n\n1 (1 inch) piece fresh ginger, grated\n\n\n1 ½ teaspoons ground nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n4  firm bananas, peeled and halved lengthwise\n\n\n¼ cup maple syrup (Optional)\n\n\n1 tablespoon ground cinnamon\n\n\n1 (1 inch) piece fresh ginger, grated\n\n\n1 ½ teaspoons ground nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Spray a baking dish with cooking spray."},{"recipe_directions":"Arrange banana halves in the prepared baking dish. Drizzle maple syrup over bananas and top with cinnamon, ginger, and nutmeg. Cover dish with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until heated through, 10 to 15 minutes."},{"recipe_directions":"Substitute 1/8 teaspoon dried ginger for the fresh ginger, if desired."},{"recipe_directions":"Mash or puree cooked bananas, if desired."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n1g \nFat\n\n\n42g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656549-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SWpqM4gdx4M4zKwF8enPBswpjJ0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/4510639-d11a6ae2ea2442b1a2a2dd011f348575.jpg"
@@ -793,59 +1098,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257829/gluten-free-fried-cheese-curds/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Gluten-Free Fried Cheese Curds</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n1 mins\n\n\nTotal Time:\n11 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup milk, or more as needed\n\n\n1  egg\n\n\n2 tablespoons gluten-free all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n1 cup grapeseed oil \n\n\n12  white Cheddar cheese curds"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup milk, or more as needed\n\n\n1  egg\n\n\n2 tablespoons gluten-free all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon salt\n\n\n½ teaspoon garlic powder\n\n\n1 cup grapeseed oil \n\n\n12  white Cheddar cheese curds'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk milk, egg, flour, baking powder, basil, salt, and garlic powder together in a bowl until batter is the consistency of eggnog."},{"recipe_directions":"Heat grapeseed oil in a deep-fryer or large saucepan to 350 degrees F (175 degrees C)."},{"recipe_directions":"Coat cheese curds with batter; fry curds, 4 to 5 at a time, in hot oil until golden brown, about 1 minute. Drain on a plate lined with paper towels."},{"recipe_directions":"Substitute small mozzarella balls for the cheese curds if desired."},{"recipe_directions":"Substitute vegetable oil for the grapeseed oil if desired."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Cheese"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"253\nCalories\n\n\n20g \nFat\n\n\n9g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656559-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-N01hARIr71kkA7yoXuQY_gg7Fc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/303776-9ff1f3275d774db9b6d2ebf3d690dc34.jpg"
@@ -858,59 +1159,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/38521/watermelon-fruit-bowl/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Watermelon Fruit Bowl</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n20 \n\n\nYield:\n20 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  large watermelon\n\n\n1  cantaloupe, halved and seeded\n\n\n1  honeydew melon, halved and seeded\n\n\n2 (15 ounce) cans mandarin oranges, drained\n\n\n2 (20 ounce) cans pineapple chunks, drained\n\n\n2 cups halved fresh strawberries\n\n\n2 cups seedless grapes \n\n\n½ cup water\n\n\n¼ cup white sugar\n\n\n2 tablespoons grated lemon zest"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  large watermelon\n\n\n1  cantaloupe, halved and seeded\n\n\n1  honeydew melon, halved and seeded\n\n\n2 (15 ounce) cans mandarin oranges, drained\n\n\n2 (20 ounce) cans pineapple chunks, drained\n\n\n2 cups halved fresh strawberries\n\n\n2 cups seedless grapes \n\n\n½ cup water\n\n\n¼ cup white sugar\n\n\n2 tablespoons grated lemon zest'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"With a large, sharp knife, remove the top 1/4 section of the watermelon. With a melon baller, scoop flesh from inside of watermelon, removing as many seeds as possible. Leave 1/2 inch of flesh inside the shell of the watermelon. Scoop cantaloupe and honeydew in the same manner, removing as much flesh as possible, and discarding the rinds. Refrigerate fruits separately until ready to assemble."},{"recipe_directions":"In a small saucepan over medium-high heat, bring water and sugar to a boil. Remove from heat, and continue stirring until sugar has completely dissolved. Add lemon zest, and set aside to cool."},{"recipe_directions":"To serve, place watermelon balls, cantaloupe, honeydew, oranges, pineapple, strawberries, and grapes, in a large mixing bowl. Pour syrup over, and toss thoroughly. Transfer mixture to watermelon bowl, and serve. Set aside any fruit mixture that will not fit. There will be enough fruit to refill the bowl."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Fruit"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"179\nCalories\n\n\n1g \nFat\n\n\n45g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656568-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MkPRjrMm9kXUY-BhEIK-uvYtW_w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/20929-rellenitos-de-platano-JenInCalifornia-4x3-1-f0a0cb9b19fb43b8bb45f260fb0b365c.jpg"
@@ -924,59 +1221,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/27159/rellenitos-de-platano/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Rellenitos de Platano</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  plantains, peeled and broken into chunks\n\n\n1 (16 ounce) can refried black beans\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n1 quart oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  plantains, peeled and broken into chunks\n\n\n1 (16 ounce) can refried black beans\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n1 quart oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place plantains in a large pot; cover with water. Bring to a boil, then reduce heat and simmer until tender, about 15 minutes. Drain and mash."},{"recipe_directions":"Heat refried beans in a small saucepan over low heat. Stir in sugar and salt. Remove from heat."},{"recipe_directions":"Form a palm-sized amount of mashed plantains into a ball; flatten and place about a teaspoon of bean mixture in the middle; then mold the sides of plantain around beans, making an egg-shaped ball."},{"recipe_directions":"Heat oil in a deep fryer or large skillet to 375 degrees F (190 degrees C), or until a small amount of batter sizzles and browns in oil."},{"recipe_directions":"Fry rellenitos in hot oil until browned. Drain on paper towels."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n8g \nFat\n\n\n35g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656576-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RgqlGn_a12gNGTsHI2G5UjtjwWg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7764653-8b0c9ef259aa4e3f9fa6348758a3d879.jpg"
@@ -989,59 +1282,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264820/spiced-air-fried-chickpeas/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Spiced Air-Fried Chickpeas</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 tablespoon nutritional yeast\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon smoked paprika\n\n\n1 teaspoon granulated garlic\n\n\n½ teaspoon salt\n\n\n1 pinch cumin"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can chickpeas, rinsed and drained\n\n\n1 tablespoon nutritional yeast\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon smoked paprika\n\n\n1 teaspoon granulated garlic\n\n\n½ teaspoon salt\n\n\n1 pinch cumin'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread chickpeas on a double layer of paper towels, cover with another layer of paper towels, and let dry for 30 minutes."},{"recipe_directions":"Preheat air fryer to 355 degrees F (180 degrees C)."},{"recipe_directions":"Combine dry chickpeas, nutritional yeast, olive oil, smoked paprika, garlic, salt, and cumin in a bowl; toss to coat."},{"recipe_directions":"Add chickpeas to the air fryer and cook until crispy, 20 to 22 minutes, shaking them every 4 minutes."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"124\nCalories\n\n\n4g \nFat\n\n\n17g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656580-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nUqdhTB68DHKkAV3FRH5A0RGjFU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8209814-b505388a8f4a4ff4b0d8a51643641882.jpg"
@@ -1054,59 +1343,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13456/stuffed-celery/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Stuffed Celery</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package cream cheese, softened\n\n\n2 tablespoons sour cream\n\n\n¼ cup chopped walnuts\n\n\n20  green olives with pimento, chopped\n\n\n1 bunch celery, cut into bite-size pieces"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package cream cheese, softened\n\n\n2 tablespoons sour cream\n\n\n¼ cup chopped walnuts\n\n\n20  green olives with pimento, chopped\n\n\n1 bunch celery, cut into bite-size pieces'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, mix together the cream cheese and sour cream. Stir in the walnuts and chopped olives. Spread filling onto the celery pieces. It's also good on crackers."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Cheese"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"76\nCalories\n\n\n7g \nFat\n\n\n2g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656583-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RTcDAm8Dz9YbES9HC9EXPFVbh7Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9415402-27d4110a3512469a8ebc91958512c119.jpg"
@@ -1119,59 +1404,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242466/gluten-free-almond-flour-chocolate-chip-cookies/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Gluten-Free Almond Flour Chocolate Chip Cookies</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n14 \n\n\nYield:\n14 cookies"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup brown sugar, light or dark\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n2 tablespoons butter, at room temperature\n\n\n2 teaspoons vanilla extract\n\n\n1  large egg\n\n\n2 cups King Arthur Almond Flour\n\n\n½ cup chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup brown sugar, light or dark\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n2 tablespoons butter, at room temperature\n\n\n2 teaspoons vanilla extract\n\n\n1  large egg\n\n\n2 cups King Arthur Almond Flour\n\n\n½ cup chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F. Lightly grease a baking sheet, or line it with parchment."},{"recipe_directions":"Combine the brown sugar, baking soda, salt, and butter, and mix until smooth."},{"recipe_directions":"Mix in the vanilla, egg, and almond flour, stirring to combine. Scrape the bottom and sides of the bowl, then mix for 1 minute at medium speed."},{"recipe_directions":"Stir in the chocolate chips."},{"recipe_directions":"Scoop the dough one level tablespoon at a time onto the prepared baking sheet; a tablespoon cookie scoop works well here."},{"recipe_directions":"Gently flatten the cookies to about 3/8-inch thick."},{"recipe_directions":"Bake the cookies for 9 to 12 minutes, until golden brown."},{"recipe_directions":"Remove the cookies from the oven. Allow them to cool on the pan for 2 minutes, then carefully transfer them to a rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n12g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656587-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fDkC7g-1Ll3a0DK1NRBVp4p5Q4w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4477057-26452eab22ae4b84a6cc284f43647a5e.jpg"
@@ -1184,59 +1465,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14830/hummus-iii/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Hummus III</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups canned garbanzo beans, drained\n\n\n⅓ cup tahini\n\n\n¼ cup lemon juice\n\n\n1 teaspoon salt\n\n\n2 cloves garlic, halved\n\n\n1 tablespoon olive oil\n\n\n1 pinch paprika\n\n\n1 teaspoon minced fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups canned garbanzo beans, drained\n\n\n⅓ cup tahini\n\n\n¼ cup lemon juice\n\n\n1 teaspoon salt\n\n\n2 cloves garlic, halved\n\n\n1 tablespoon olive oil\n\n\n1 pinch paprika\n\n\n1 teaspoon minced fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the garbanzo beans, tahini, lemon juice, salt and garlic in a blender or food processor. Blend until smooth. Transfer mixture to a serving bowl."},{"recipe_directions":"Drizzle olive oil over the garbanzo bean mixture. Sprinkle with paprika and parsley."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Hummus Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"77\nCalories\n\n\n4g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656590-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MdA66OhpWqpkylVdBGwCSgaS1gA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/797844-d941fe7db06d41f58191e7ba454d36de.jpg"
@@ -1249,59 +1526,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14088/fresh-tomato-salsa/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Fresh Tomato Salsa</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  tomatoes, chopped\n\n\n½ cup finely diced onion\n\n\n5  serrano chiles, finely chopped\n\n\n½ cup chopped fresh cilantro\n\n\n1 teaspoon salt\n\n\n2 teaspoons lime juice"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  tomatoes, chopped\n\n\n½ cup finely diced onion\n\n\n5  serrano chiles, finely chopped\n\n\n½ cup chopped fresh cilantro\n\n\n1 teaspoon salt\n\n\n2 teaspoons lime juice'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, stir together tomatoes, onion, chili peppers, cilantro, salt, and lime juice. Chill for one hour in the refrigerator before serving."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"52\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656593-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2OV-cRWr-dGtS3vsbU62BQ_8vsU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3322508-071e53e50d8447e6b6d3655d0e4b83ed.jpg"
@@ -1314,59 +1587,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246456/gluten-free-turkey-meatballs/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Gluten-Free Turkey Meatballs</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n40 \n\n\nYield:\n40 meatballs"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ pound ground turkey\n\n\n½ pound chicken sausage, casings removed\n\n\n⅔ cup gluten-free bread crumbs\n\n\n3 tablespoons chopped fresh basil\n\n\n3 tablespoons milk\n\n\n2 teaspoons minced garlic\n\n\n¼ cup grated Parmesan cheese\n\n\n1 teaspoon kosher salt\n\n\n½ teaspoon ground black pepper\n\n\n1  egg, lightly beaten"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ pound ground turkey\n\n\n½ pound chicken sausage, casings removed\n\n\n⅔ cup gluten-free bread crumbs\n\n\n3 tablespoons chopped fresh basil\n\n\n3 tablespoons milk\n\n\n2 teaspoons minced garlic\n\n\n¼ cup grated Parmesan cheese\n\n\n1 teaspoon kosher salt\n\n\n½ teaspoon ground black pepper\n\n\n1  egg, lightly beaten'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine ground turkey, chicken sausage, bread crumbs, basil, milk, garlic, Parmesan cheese, kosher salt, and black pepper in a bowl; mix gently with a fork. Drop mixture, about 1 1/4-inch diameter per meatball, onto the prepared baking sheet using a spoon."},{"recipe_directions":"Bake in the preheated oven until cooked through and lightly browned, about 30 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Turkey"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"32\nCalories\n\n\n2g \nFat\n\n\n1g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656596-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f9XljQNfTekmBgTHQmGfH-UWcI0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8185-8f98ce31f2924a22b14b6caef0aee266.jpg"
@@ -1379,59 +1648,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24182/black-bean-salsa/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Black Bean Salsa</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 15 mins\n\n\nServings:\n40 \n\n\nYield:\n5 cups"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 (15 ounce) cans black beans, drained and rinsed\n\n\n1 (11 ounce) can Mexican-style corn, drained\n\n\n2 (10 ounce) cans diced tomatoes with green chile peppers, partially drained\n\n\n2  tomatoes, diced\n\n\n2 bunches green onions, chopped\n\n\n  cilantro leaves, for garnish"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 (15 ounce) cans black beans, drained and rinsed\n\n\n1 (11 ounce) can Mexican-style corn, drained\n\n\n2 (10 ounce) cans diced tomatoes with green chile peppers, partially drained\n\n\n2  tomatoes, diced\n\n\n2 bunches green onions, chopped\n\n\n  cilantro leaves, for garnish'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, mix together black beans, Mexican-style corn, diced tomatoes with green chile peppers, tomatoes and green onion stalks. Garnish with desired amount of cilantro leaves. Chill in the refrigerator at least 8 hours, or overnight, before serving."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"42\nCalories\n\n\n0g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656599-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cTGGZxrvm_hy2kRmoRiAE9pqEFw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/89491-5c4ba9060286464db7500ef2229bc1c6.jpg"
@@ -1444,59 +1709,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24586/salmon-spread-ii/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Salmon Spread II</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n24 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound salmon fillets\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n½ cup sour cream\n\n\n2  finely chopped green onions\n\n\n½ teaspoon salt\n\n\n2 drops hot pepper sauce\n\n\n2 tablespoons fresh lemon juice\n\n\n1 tablespoon Worcestershire sauce"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound salmon fillets\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n½ cup sour cream\n\n\n2  finely chopped green onions\n\n\n½ teaspoon salt\n\n\n2 drops hot pepper sauce\n\n\n2 tablespoons fresh lemon juice\n\n\n1 tablespoon Worcestershire sauce'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium saucepan of simmering water, poach the salmon filets 10 minutes, or until flaky and tender."},{"recipe_directions":"In a medium bowl, mix together cream cheese, sour cream, green onions, salt, hot pepper sauce, lemon juice and Worcestershire sauce."},{"recipe_directions":"Flake salmon into the mixture. Cover and refrigerate 8 hours, or overnight, before serving."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"},{"recipe_tags":"Cream Cheese Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"79\nCalories\n\n\n6g \nFat\n\n\n1g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656605-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RjCpvGgmvH-tymlC4zdFkSymb9A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2553483-2f8075f791a843c0871ad595979ff994.jpg"
@@ -1509,59 +1770,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244281/egg-in-a-pepper/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Egg in a Pepper</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  large egg\n\n\n1 (1/4 inch thick) ring bell pepper\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  large egg\n\n\n1 (1/4 inch thick) ring bell pepper\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a non-stick skillet over medium heat. Place bell pepper ring in the hot skillet. Crack egg into bell pepper ring; cook until bottom holds together and corners are browned, 2 to 3 minutes. Flip and cook until desired doneness is reached, 2 to 3 minutes more; season with salt and ground black pepper."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"74\nCalories\n\n\n5g \nFat\n\n\n1g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656609-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WrkBwhT20al13Jm9mt0E0WgGnHg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/4531523-a3ad309909c948b2ad55b07d73a3b42c.jpg"
@@ -1574,59 +1831,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14820/spicy-corn-dip/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Spicy Corn Dip</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n32 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) container sour cream\n\n\n1 cup mayonnaise\n\n\n2 (11 ounce) cans Mexican-style corn\n\n\n4  green onions, chopped\n\n\n3  jalapeno peppers, seeded and minced\n\n\n1 (7 ounce) can diced green chiles\n\n\n1 ¼ cups shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) container sour cream\n\n\n1 cup mayonnaise\n\n\n2 (11 ounce) cans Mexican-style corn\n\n\n4  green onions, chopped\n\n\n3  jalapeno peppers, seeded and minced\n\n\n1 (7 ounce) can diced green chiles\n\n\n1 ¼ cups shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, mix together sour cream, mayonnaise, corn, green onions, jalapeno chile peppers, green chile peppers and cheese. Ready to serve!"}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"},{"recipe_tags":"Cold Cheese Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"99\nCalories\n\n\n8g \nFat\n\n\n5g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656616-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ia0HtCoTZz8qy2Z_2M18ACrnKOE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/695887-8c08b2f237314d508b27745bcd458fdb.jpg"
@@ -1639,59 +1892,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22694/bacon-and-date-appetizer/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Bacon and Date Appetizer</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package pitted dates\n\n\n4 ounces almonds\n\n\n1 pound sliced bacon"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package pitted dates\n\n\n4 ounces almonds\n\n\n1 pound sliced bacon'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the broiler."},{"recipe_directions":"Slit dates. Place one almond inside each date. Wrap dates with bacon, using toothpicks to hold them together."},{"recipe_directions":"Broil 10 minutes, or until bacon is evenly brown and crisp."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Pork"},{"recipe_tags":"Bacon"},{"recipe_tags":"Appetizers"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"560\nCalories\n\n\n44g \nFat\n\n\n32g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656621-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_lA9ms9K5crElWzmz23CmwBt8Zc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1023x0:1025x2):format(webp)/8921569-38a7ce8a32f24531bb34ecc1eb7dadca.jpg"
@@ -1704,59 +1953,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242058/marys-gone-crackers-copycat/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Mary's Gone Crackers® Copycat</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n4 dozen crackers"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup cooked brown rice\n\n\n1 cup cooked quinoa\n\n\n2 teaspoons tamari (gluten-free soy sauce) (Optional)\n\n\n1 tablespoon water, or as needed (Optional)\n\n\n¼ cup chia seeds\n\n\n¼ cup sesame seeds\n\n\n¼ cup flax seeds\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup cooked brown rice\n\n\n1 cup cooked quinoa\n\n\n2 teaspoons tamari (gluten-free soy sauce) (Optional)\n\n\n1 tablespoon water, or as needed (Optional)\n\n\n¼ cup chia seeds\n\n\n¼ cup sesame seeds\n\n\n¼ cup flax seeds\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper. Cut a small square out of a separate sheet of parchment paper and oil 1 side; set aside."},{"recipe_directions":"Blend brown rice, quinoa, and tamari in a food processor, adding water if mixture is too dry, until a dough starts to form. Add chia seeds, sesame seeds, flax seeds, and salt; pulse until dough is a sticky ball."},{"recipe_directions":"Roll small pieces of dough into 1/2-inch balls and arrange at least 2 1/2 inches apart on the prepared baking sheet. Place the oiled square of parchment paper, oil-side down, onto a dough ball. Flatten the dough ball into a very thin 2-inch-wide disk by pressing the top of a small jar onto the parchment square. Repeat with remaining dough balls."},{"recipe_directions":"Bake in the preheated oven until edges of crackers begin to brown, 10 to 12 minutes. Transfer crackers to a wire rack. Place the rack onto the baking sheet and return to oven."},{"recipe_directions":"Bake until crackers are dry and crisp, 2 to 3 minutes more."},{"recipe_directions":"You can also divide the dough in half and keep half in the fridge for about a week, then make a second batch of these crunchy gluten-free crackers."},{"recipe_directions":"Baking time will vary depending on thickness of crackers, but thinnest is best."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Cracker Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"126\nCalories\n\n\n6g \nFat\n\n\n15g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656626-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xR4Z6EkgF82_Zxigkygjew47Ea8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1070710-4aa68665a96d4dc7a949153906534bd7.jpg"
@@ -1769,59 +2014,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14884/pickle-rollups/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Pickle Rollups</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"16 ounces sliced pastrami\n\n\n2 (8 ounce) packages cream cheese, softened\n\n\n1 (16 ounce) jar dill pickles, cut into strips lengthwise"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '16 ounces sliced pastrami\n\n\n2 (8 ounce) packages cream cheese, softened\n\n\n1 (16 ounce) jar dill pickles, cut into strips lengthwise'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread cream cheese over a meat slice to cover. Place a pickle piece on one end, and roll the meat up. Repeat with remaining ingredients. Cut into 1 1/2 inch pieces, and chill until ready to serve."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"230\nCalories\n\n\n18g \nFat\n\n\n3g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656630-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SGt2AWCb7Chh9h_ojCJne8KCRJY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1795045-480b4028937c4fd19b98ff09611129f0.jpg"
@@ -1834,59 +2075,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25547/smoked-salmon-mousse/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Smoked Salmon Mousse</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 ounces smoked salmon\n\n\n2 tablespoons heavy cream\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n½  lemon, juiced\n\n\n½ teaspoon dried dill weed to taste\n\n\n  salt and pepper to taste\n\n\n1 ounce salmon roe"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 ounces smoked salmon\n\n\n2 tablespoons heavy cream\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n½  lemon, juiced\n\n\n½ teaspoon dried dill weed to taste\n\n\n  salt and pepper to taste\n\n\n1 ounce salmon roe'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place smoked salmon in a blender or food processor, and blend until smooth. Mix in heavy cream, cream cheese, juice of half of a lemon, dried dill weed, salt and pepper. Blend to desired consistency. Transfer to a medium serving dish, and garnish with salmon roe."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"67\nCalories\n\n\n6g \nFat\n\n\n1g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656636-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GpLb6Th9XpPMaSGDhJPyxK7ZAUc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/191512-bcf1ac6f02444f37aa7c1e45abdb2a6c.jpg"
@@ -1899,59 +2136,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/176229/divine-hard-boiled-eggs/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Divine Hard-Boiled Eggs</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs 30 mins\n\n\nTotal Time:\n 2 hrs 50 mins\n\n\nServings:\n12 \n\n\nYield:\n12 eggs"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12  eggs"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12  eggs'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place eggs in a pot; pour enough water over the eggs to cover. Cover and turn stove to high; bring to a boil; turn off heat and place pot on a cool burner. Let the pot sit with the cover on for 15 minutes. Meanwhile, fill a large bowl halfway with cold water; transfer the eggs from the pot to the cold water. Replace the water with cold water as needed to keep cold until the eggs are completely cooled. Chill in refrigerator at least 2 hours before peeling."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"72\nCalories\n\n\n5g \nFat\n\n\n0g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656643-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JlUHTyCwByV5O3F76cen4BALDK4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3506564-f21a27fc2f144a77a2765920861a327e.jpg"
@@ -1964,59 +2197,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241708/karioka-sweet-rice-balls/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Karioka Sweet Rice Balls</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n5 \n\n\nYield:\n5 rice balls"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup rice flour\n\n\n1 cup shredded coconut\n\n\n¾ cup coconut milk\n\n\n2 cups vegetable oil for frying"},{"recipe_ingredients":"½ cup coconut milk\n\n\n¼ cup brown sugar"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup rice flour\n\n\n1 cup shredded coconut\n\n\n¾ cup coconut milk\n\n\n2 cups vegetable oil for frying'}, {'recipe_ingredients': '½ cup coconut milk\n\n\n¼ cup brown sugar'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix rice flour, shredded coconut, and 3/4 cup coconut milk together in a bowl until dough is well mixed. Form dough into balls, about 1 tablespoon per ball."},{"recipe_directions":"Heat oil in a pot over medium heat."},{"recipe_directions":"Fry dough balls in the hot oil until lightly browned, about 5 minutes. Remove pot from heat and transfer balls to a paper towel-lined plate."},{"recipe_directions":"Pour 1/2 cup coconut milk into a saucepan; bring to a boil. Stir brown sugar into hot coconut milk until liquid thickens, 2 to 3 minutes more. Remove saucepan from heat, cool coconut coating slightly, and dip balls into coating. Cool slightly before serving."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Filipino"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"414\nCalories\n\n\n25g \nFat\n\n\n45g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656648-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H2j1dariAMLBNWlS0GtZSbbtMLY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1384517-1190445214b74eb3a4e9e86b2e7b2f2e.jpg"
@@ -2029,59 +2258,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22972/easy-never-forgotten-guacamole/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Easy Never Forgotten Guacamole</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  avocados - peeled, pitted and diced\n\n\n1 tablespoon sour cream\n\n\n2 (3 ounce) packages cream cheese, softened\n\n\n2 tablespoons salsa\n\n\n1 pinch salt\n\n\n1 dash ground black pepper\n\n\n1 dash garlic salt\n\n\n1 dash onion powder"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  avocados - peeled, pitted and diced\n\n\n1 tablespoon sour cream\n\n\n2 (3 ounce) packages cream cheese, softened\n\n\n2 tablespoons salsa\n\n\n1 pinch salt\n\n\n1 dash ground black pepper\n\n\n1 dash garlic salt\n\n\n1 dash onion powder'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small bowl, mix together the avocados, sour cream, cream cheese and salsa. Blend to desired consistency."},{"recipe_directions":"In a small bowl mix the salt, pepper, garlic salt and onion powder. Stir into the avocado mixture. Cover and chill in the refrigerator 1/2 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Guacamole Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"100\nCalories\n\n\n9g \nFat\n\n\n4g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656654-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RFJxC0v0jBHG9NZgIvNUwDF96GI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/6552999-8d8b6163275347fe997e6413bf3a4e61.jpg"
@@ -2094,59 +2319,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270774/air-fryer-keto-garlic-cheese-bread/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Air Fryer Keto Garlic Cheese 'Bread'</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup shredded mozzarella cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n1 large egg\n\n\n½ teaspoon garlic powder"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup shredded mozzarella cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n1 large egg\n\n\n½ teaspoon garlic powder'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line the air fryer basket with a piece of parchment paper."},{"recipe_directions":"Combine mozzarella cheese, Parmesan cheese, egg, and garlic powder in a bowl; mix until well combined. Press into a round circle on the parchment in the air fryer basket."},{"recipe_directions":"Heat the air fryer to 350 degrees F (175 degrees C). Fry bread for 10 minutes. Remove. Serve garlic cheese bread warm, but not hot."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n14g \nFat\n\n\n3g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656661-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XYUUqfDlGnPv5pt-LOBk_tUSzkk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1227x0:1229x2):format(webp)/7059414-0c12eb1ec06e4ce5b9a79cb7061bd0c0.jpg"
@@ -2159,59 +2380,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/150711/movie-star-popcorn/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Movie Star Popcorn</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n5 \n\n\nYield:\n10 cups"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons peanut oil\n\n\n2 tablespoons butter\n\n\n½ cup unpopped popcorn\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons peanut oil\n\n\n2 tablespoons butter\n\n\n½ cup unpopped popcorn\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a 2 to 3 quart saucepan or pot with a lid set over medium-high heat. Pour in popcorn kernels and sprinkle enough salt to lightly cover the layer of kernels. Remember, you can always add more salt later. Add the butter to the pot and cover with the lid."},{"recipe_directions":"As soon as the kernels start to pop, shake the pan back and forth across the burner constantly until the popping slows down. As soon as the pops are about 2 seconds apart, remove from the heat and pour into a serving bowl. Taste, and season with additional salt if desired."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Popcorn Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"187\nCalories\n\n\n14g \nFat\n\n\n15g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656666-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1S1_CIEs3L_lgw53fjftZqMJiZ8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/580486-5585baefbf0b481b9b2fa4094c8af57c.jpg"
@@ -2224,59 +2441,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22453/yummy-roll-ups/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Yummy Roll Ups</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 slices cooked ham\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n5  dill pickle spears"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 slices cooked ham\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n5  dill pickle spears'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lay the ham slices flat on a serving plate and pat dry. Spread with cream cheese. Place a pickle spear at one end of each slice, and roll the slices into cylinders around the spears; secure with toothpicks."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"232\nCalories\n\n\n21g \nFat\n\n\n2g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656670-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bv0Rn7sQEgdw7ZV2EzRw6_hWa1Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/6407057-e00e80fee4724dc0b9467c2b45abc4b4.jpg"
@@ -2289,59 +2502,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270820/air-fryer-onion-bhaji/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Air Fryer Onion Bhaji</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 small red onion, thinly sliced\n\n\n1 small yellow onion, thinly sliced\n\n\n1 tablespoon salt\n\n\n1  jalapeno pepper, seeded and minced\n\n\n1 clove garlic, minced\n\n\n1 teaspoon coriander\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon ground turmeric\n\n\n½ teaspoon cumin\n\n\n⅔ cup chickpea flour (besan)\n\n\n4 tablespoons water, or as needed\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 small red onion, thinly sliced\n\n\n1 small yellow onion, thinly sliced\n\n\n1 tablespoon salt\n\n\n1  jalapeno pepper, seeded and minced\n\n\n1 clove garlic, minced\n\n\n1 teaspoon coriander\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon ground turmeric\n\n\n½ teaspoon cumin\n\n\n⅔ cup chickpea flour (besan)\n\n\n4 tablespoons water, or as needed\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix red onion, yellow onion, salt, jalapeno, garlic, coriander, chili powder, turmeric, and cumin in a large bowl. Stir until evenly combined. Add chickpea flour and water. Stir to combine into a thick batter. Add more water if necessary. Let mixture rest for 10 minutes."},{"recipe_directions":"Preheat air fryer to 350 degrees F (175 degrees C)."},{"recipe_directions":"Spray the air fryer basket with nonstick cooking spray. Spoon 2 tablespoons of batter into the basket and flatten. Repeat as many times as your basket allows without the bhajis touching."},{"recipe_directions":"Cook in the preheated air fryer for 6 minutes. Mist the tops of each bhaji with cooking spray. Flip and cook 6 additional minutes. Transfer to a paper towel-lined plate. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"40\nCalories\n\n\n1g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656678-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/G0iozkym7ypkrheCFhQ-ZVd6EM0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/515229-67d4cf644ecc4150926b66d1d077566f.jpg"
@@ -2354,59 +2563,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14814/hot-artichoke-spinach-dip/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Hot Artichoke Spinach Dip</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n16 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14 ounce) can artichoke hearts, drained\n\n\n⅓ cup grated Romano cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n½ teaspoon minced garlic\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n⅓ cup heavy cream\n\n\n½ cup sour cream\n\n\n1 cup shredded mozzarella cheese"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can artichoke hearts, drained\n\n\n⅓ cup grated Romano cheese\n\n\n¼ cup grated Parmesan cheese\n\n\n½ teaspoon minced garlic\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n⅓ cup heavy cream\n\n\n½ cup sour cream\n\n\n1 cup shredded mozzarella cheese'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a 9x13 inch baking dish."},{"recipe_directions":"In a blender or food processor, place artichoke hearts, Romano cheese, Parmesan cheese and garlic . Pulse until chopped, but not ground. Set aside."},{"recipe_directions":"In a medium bowl, mix together spinach, heavy cream, sour cream and mozzarella cheese. Stir in artichoke mixture. Spoon into prepared baking dish."},{"recipe_directions":"Bake in the preheated oven for 20 to 25 minutes, or until cheese is melted and bubbly."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Spinach Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"82\nCalories\n\n\n6g \nFat\n\n\n3g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656688-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/x3UH6IUPuVeQZ6QZSOqTOjwKi60=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2479709-6e05b8736fd845a0bf4259429ff36039.jpg"
@@ -2419,59 +2624,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237704/banana-oatmeal-protein-bars/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Banana Oatmeal Protein Bars</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n25 \n\n\nYield:\n1 8-inch pan"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups gluten-free rolled oats\n\n\n1 cup mashed banana\n\n\n⅔ cup vanilla protein powder (such as Muscletech Whey Protein Plus®)\n\n\n½ cup peanut butter, slightly melted\n\n\n½ cup sweetened dried cranberries (such as Craisins®)\n\n\n½ cup unsweetened flaked coconut (Optional)\n\n\n½ cup chopped raw almonds\n\n\n¼ cup brewed sweet and spicy black tea (such as Good Earth® Sweet&amp;Spicy®\n\n\n2 tablespoons chia seeds\n\n\n1 ½ teaspoons ground cinnamon\n\n\n1 teaspoon vanilla extract\n\n\n¼ cup coconut, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups gluten-free rolled oats\n\n\n1 cup mashed banana\n\n\n⅔ cup vanilla protein powder (such as Muscletech Whey Protein Plus®)\n\n\n½ cup peanut butter, slightly melted\n\n\n½ cup sweetened dried cranberries (such as Craisins®)\n\n\n½ cup unsweetened flaked coconut (Optional)\n\n\n½ cup chopped raw almonds\n\n\n¼ cup brewed sweet and spicy black tea (such as Good Earth® Sweet&amp;Spicy®\n\n\n2 tablespoons chia seeds\n\n\n1 ½ teaspoons ground cinnamon\n\n\n1 teaspoon vanilla extract\n\n\n¼ cup coconut, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease an 8-inch square pan."},{"recipe_directions":"Mix oats, banana, protein powder, peanut butter, cranberries, 1/2 cup coconut, almonds, tea, chia seeds, cinnamon, and vanilla together in a large mixing bowl; spread into prepared pan. Top with 1/4 cup coconut."},{"recipe_directions":"Bake bars until lightly browned, 25 to 30 minutes. Set aside to cool until they set completely, at least 15 minutes."},{"recipe_directions":"This is also delicious if you substitute pumpkin for the bananas and add nutmeg, ginger, and allspice."},{"recipe_directions":"It's also delicious if you leave out the Craisins(R) and instead add 1/2 cup mini chocolate chips."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Granola Bar Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"139\nCalories\n\n\n6g \nFat\n\n\n12g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656698-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ocvx0OyEMD6PpPbzyV0HNB2RgPc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x706:961x708):format(webp)/24704_SevenLayerGelatinSalad_MFS__16-1-3657e95f738341ff9491e3f9e0e8c2bf.jpg"
@@ -2485,59 +2686,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24704/seven-layer-gelatin-salad/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Seven Layer Gelatin Salad</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n 5 hrs 15 mins\n\n\nTotal Time:\n 6 hrs 25 mins\n\n\nServings:\n18 \n\n\nYield:\n1 - 9x13 inch dish"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"7 (3 ounce) packages assorted fruit flavored Jell-O® mix\n\n\n4 ½ cups boiling water, divided\n\n\n4 ½ cups cold water, divided\n\n\n1 (12 fluid ounce) can evaporated milk, divided\n\n\n1 (8 ounce) container frozen whipped topping, thawed"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '7 (3 ounce) packages assorted fruit flavored Jell-O® mix\n\n\n4 ½ cups boiling water, divided\n\n\n4 ½ cups cold water, divided\n\n\n1 (12 fluid ounce) can evaporated milk, divided\n\n\n1 (8 ounce) container frozen whipped topping, thawed'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Coat a 9x13 inch dish with cooking spray."},{"recipe_directions":"Dissolve one package of gelatin in 3/4 cup boiling water. Stir in 3/4 cup cold water. Spoon into pan and refrigerate until almost set, 45 minutes."},{"recipe_directions":"Dissolve another package of gelatin in 1/2 cup boiling water. Stir in 1/2 cup cold water and 1/2 cup evaporated milk. Spoon over first layer and refrigerate until almost set, 45 minutes."},{"recipe_directions":"Repeat steps 2 and 3 until all gelatin is used. Just before serving, top with whipped topping."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Specialty Dessert Recipes"},{"recipe_tags":"Dessert Salad Recipes"},{"recipe_tags":"Jell-O® Salad"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"189\nCalories\n\n\n4g \nFat\n\n\n35g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656703-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/f4SjSdLMXYdT-1YZuXYPWiQ9UCA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2247865-c05af6a65edf4c3fb8864b912ab00f91.jpg"
@@ -2550,59 +2747,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241865/coconut-flour-chocolate-brownies/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Coconut Flour Chocolate Brownies</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup cocoa powder \n\n\n⅓ cup virgin coconut oil\n\n\n1 cup white sugar\n\n\n6  eggs\n\n\n½ teaspoon salt\n\n\n½ teaspoon vanilla extract\n\n\n½ cup coconut flour, sifted\n\n\n1 tablespoon semisweet chocolate chips, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup cocoa powder \n\n\n⅓ cup virgin coconut oil\n\n\n1 cup white sugar\n\n\n6  eggs\n\n\n½ teaspoon salt\n\n\n½ teaspoon vanilla extract\n\n\n½ cup coconut flour, sifted\n\n\n1 tablespoon semisweet chocolate chips, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease an 8-inch square baking dish."},{"recipe_directions":"Stir cocoa powder and coconut oil together in a saucepan over low heat until coconut oil has melted, about 5 minutes. Remove from the heat and let cool, about 5 minutes."},{"recipe_directions":"Beat sugar, eggs, salt, and vanilla in a bowl with an electric mixer. Stir in cooled cocoa mixture, then whisk in coconut flour until no lumps remain. Pour batter into the prepared baking dish and sprinkle chocolate chips over top."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, about 35 minutes."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Brownie Recipes"},{"recipe_tags":"Chocolate Brownie Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n9g \nFat\n\n\n19g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656710-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qcJkvl5Xi4VPHbic3fkeZ2uJZsg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5728671-1cbabcf8877b440e893200e3da20f838.jpg"
@@ -2615,59 +2808,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268013/instant-pot-spinach-and-artichoke-dip/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Instant Pot Spinach and Artichoke Dip</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14 ounce) can artichoke hearts, drained and quartered\n\n\n1 (10 ounce) package frozen chopped spinach\n\n\n8 ounces cream cheese\n\n\n1 cup sour cream\n\n\n½ cup chopped white onion\n\n\n½ cup chicken broth\n\n\n3 cloves garlic, minced\n\n\n½ teaspoon salt\n\n\n  crushed red chile flakes\n\n\n3 cups shredded Monterey Jack cheese\n\n\n2 cups grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can artichoke hearts, drained and quartered\n\n\n1 (10 ounce) package frozen chopped spinach\n\n\n8 ounces cream cheese\n\n\n1 cup sour cream\n\n\n½ cup chopped white onion\n\n\n½ cup chicken broth\n\n\n3 cloves garlic, minced\n\n\n½ teaspoon salt\n\n\n  crushed red chile flakes\n\n\n3 cups shredded Monterey Jack cheese\n\n\n2 cups grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine artichoke hearts, frozen spinach, cream cheese, sour cream, onion, chicken broth, garlic, salt, and chile flakes in a multi-functional pressure cooker (such as Instant Pot). Close and lock the lid. Select manual pressure according to manufacturer's instructions; set timer for 4 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid. Whisk in Monterey Jack and Parmesan cheese until smooth; serve immediately."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Spinach Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"439\nCalories\n\n\n35g \nFat\n\n\n9g \nCarbs\n\n\n24g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656717-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8K0oDFxJmrvffTYiEv2NH5QpCnE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/363326-57496b11955e464bb258af225f9e549c.jpg"
@@ -2680,59 +2869,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14837/best-guacamole/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Best Guacamole</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  avocados\n\n\n½  lemon, juiced\n\n\n2 tablespoons chopped onion\n\n\n2 tablespoons olive oil\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  avocados\n\n\n½  lemon, juiced\n\n\n2 tablespoons chopped onion\n\n\n2 tablespoons olive oil\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut avocados into halves. Remove seeds and scoop out the pulp into a small bowl. Use a fork to mash the avocado."},{"recipe_directions":"Stir in lemon juice, onion, olive oil, and salt. Cover the bowl and refrigerate for 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Guacamole Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"56\nCalories\n\n\n5g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656723-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wp7v7SAKx_pJ4FVj9u3ptSu9--k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1680821-ef77a10ebd65420ca59062e04ed1d408.jpg"
@@ -2745,59 +2930,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8947/buffalo-chicken-wings-i/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Buffalo Chicken Wings I</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8 \n\n\nYield:\n24 wings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 quart vegetable oil for deep frying\n\n\n24  chicken wings, tips removed and wings cut in half at joint\n\n\n4 tablespoons butter\n\n\n1 tablespoon distilled white vinegar\n\n\n5 tablespoons hot pepper sauce\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 quart vegetable oil for deep frying\n\n\n24  chicken wings, tips removed and wings cut in half at joint\n\n\n4 tablespoons butter\n\n\n1 tablespoon distilled white vinegar\n\n\n5 tablespoons hot pepper sauce\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the oil in a large skillet or deep fryer to 375 degrees F (190 degrees C). Deep fry chicken wings in oil until done, about 10 minutes. Remove chicken from skillet or deep fryer and drain on paper towels."},{"recipe_directions":"Melt the butter in a large skillet. Stir in the, vinegar and hot pepper sauce. Season with salt and pepper to taste. Add cooked chicken to sauce and stir over low heat to coat. The longer the wings simmer in the sauce, the hotter they will be. Serve warm."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Spicy"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"256\nCalories\n\n\n24g \nFat\n\n\n0g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656728-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r2RZJkyZinFqAR6wNbgB87XIRKc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/54346-Applesauce-Tammy-Lynn-1x1-1-2000-7841a69361d940e6b273e7512ba80971.jpg"
@@ -2811,59 +2992,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/54346/applesauce/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Applesauce</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups apples - peeled, cored and chopped\n\n\n¾ cup water\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground cloves\n\n\n½ cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups apples - peeled, cored and chopped\n\n\n¾ cup water\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground cloves\n\n\n½ cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a 2 quart saucepan over medium heat, combine apples, water, cinnamon, and cloves. Bring to a boil, reduce heat, and simmer 10 minutes. Stir in sugar, and simmer 5 more minutes."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n0g \nFat\n\n\n51g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656734-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QWD49pxh1YUG1EPS7yJq6eT2ZHc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5908651-spiced-pumpkin-seeds-Jennifer-Sagerser-Hightower-1x1-1-93fa1a0765db4cc7b7c3a62997d0090c.jpg"
@@ -2877,59 +3054,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13839/spiced-pumpkin-seeds/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Spiced Pumpkin Seeds</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ tablespoons margarine, melted\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon garlic salt\n\n\n2 teaspoons Worcestershire sauce\n\n\n2 cups raw whole pumpkin seeds"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ tablespoons margarine, melted\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon garlic salt\n\n\n2 teaspoons Worcestershire sauce\n\n\n2 cups raw whole pumpkin seeds'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 275 degrees F (135 degrees C)."},{"recipe_directions":"Combine the margarine, salt, garlic salt, Worcestershire sauce and pumpkin seeds. Mix thoroughly and place in shallow baking dish."},{"recipe_directions":"Bake for 1 hour, stirring occasionally."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Nuts and Seeds"},{"recipe_tags":"Pumpkin Seed Recipes"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"90\nCalories\n\n\n5g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656738-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lzJPAR13JR_NLM8ObBBufuyNQSc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3292643-e33e79bc29af4f478eee288041f3c600.jpg"
@@ -2942,59 +3115,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246265/almond-milk-chocolate-pudding/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Almond Milk Chocolate Pudding</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup white sugar, or to taste\n\n\n½ cup unsweetened cocoa powder\n\n\n⅓ cup cornstarch\n\n\n¼ teaspoon salt (Optional)\n\n\n3 cups unsweetened almond milk\n\n\n1 teaspoon unsalted butter (Optional)\n\n\n1 teaspoon vanilla extract (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar, or to taste\n\n\n½ cup unsweetened cocoa powder\n\n\n⅓ cup cornstarch\n\n\n¼ teaspoon salt (Optional)\n\n\n3 cups unsweetened almond milk\n\n\n1 teaspoon unsalted butter (Optional)\n\n\n1 teaspoon vanilla extract (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk sugar, cocoa powder, cornstarch, and salt together in a saucepan off the stove. Add 1/4 cup almond milk; whisk until smooth and foamy. Continue adding almond milk, 1/4 cup at a time, whisking after each addition."},{"recipe_directions":"Place the saucepan over medium-high heat and cook, stirring constantly, until mixture comes to a simmer and starts to thicken, about 5 minutes."},{"recipe_directions":"Remove from the heat and stir in butter until melted and smooth. Stir in vanilla, then pour pudding into a serving bowl. Cover and refrigerate until chilled, at least 30 minutes."},{"recipe_directions":"You can use any type of non-dairy milk instead of almond milk. You can even use regular milk if desired."},{"recipe_directions":"Add 1 to 2 tablespoons instant coffee granules to the dry ingredients in Step 1 for a chocolate mocha pudding. (You may want to increase the sugar slightly too!)"},{"recipe_directions":"Add 1/2 shot of rum instead of vanilla in Step 3."},{"recipe_directions":"Add sliced bananas to the chilled pudding before serving."},{"recipe_directions":"Line a casserole dish with chocolate wafer cookies or chocolate graham crackers, then pour pudding over top and chill as directed."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Nut Dessert Recipes"},{"recipe_tags":"Almond Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"213\nCalories\n\n\n3g \nFat\n\n\n48g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656744-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/u8ztUras9wr_oaACmmukzL9ns4Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7049344-air-fryer-pakoras-cricky87-4x3-1-271a4fff5a0b414b81cee4ae267214f4.jpg"
@@ -3008,59 +3177,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/270817/air-fryer-pakoras/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Air Fryer Pakoras</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups chopped cauliflower\n\n\n1 ¼ cups chickpea flour (besan)\n\n\n1 cup diced yellow potatoes\n\n\n¾ cup water\n\n\n½  red onion, chopped\n\n\n1 tablespoon salt\n\n\n1 clove garlic, minced\n\n\n1 teaspoon curry powder\n\n\n1 teaspoon coriander\n\n\n½ teaspoon ground cayenne pepper, or more to taste\n\n\n½ teaspoon cumin\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups chopped cauliflower\n\n\n1 ¼ cups chickpea flour (besan)\n\n\n1 cup diced yellow potatoes\n\n\n¾ cup water\n\n\n½  red onion, chopped\n\n\n1 tablespoon salt\n\n\n1 clove garlic, minced\n\n\n1 teaspoon curry powder\n\n\n1 teaspoon coriander\n\n\n½ teaspoon ground cayenne pepper, or more to taste\n\n\n½ teaspoon cumin\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together cauliflower, chickpea flour, potatoes, water, red onion, salt, garlic, curry powder, coriander, cayenne pepper, and cumin in a large bowl until well combined. Set batter aside to rest for 10 minutes."},{"recipe_directions":"Preheat the air fryer to 350 degrees F (175 degrees C). Grease the basket of the air fryer with cooking spray."},{"recipe_directions":"Spoon 2 tablespoons batter into the prepared basket and flatten. Repeat this as many times as the basket space allows without the pakoras touching. Mist the top of each pakora with cooking spray."},{"recipe_directions":"Cook in the preheated air fryer for 8 minutes. Flip and cook for 8 more minutes. Transfer pakoras to a paper towel-lined plate. Repeat steps 3 and 4 with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"81\nCalories\n\n\n1g \nFat\n\n\n14g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656749-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1AVzMBYdRCLD1uwU_TefN9ej1AA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(899x0:901x2):format(webp)/9234834-almond-flour-banana-bread-Shannon-Artym-1x1-1-a153bfc43ebe479cbab5a91c9af3f1a3.jpg"
@@ -3074,59 +3239,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239025/almond-flour-banana-bread/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Almond Flour Banana Bread</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8 \n\n\nYield:\n1 9x5-inch loaf"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n3 large eggs, beaten\n\n\n1 tablespoon apple cider vinegar\n\n\n3 medium ripe bananas, mashed\n\n\n¼ cup coconut oil, melted\n\n\n¼ cup honey\n\n\n1 teaspoon vanilla extract\n\n\n3 cups almond flour\n\n\n1 teaspoon ground cinnamon\n\n\n¾ teaspoon baking powder\n\n\n½ teaspoon ground nutmeg\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n3 large eggs, beaten\n\n\n1 tablespoon apple cider vinegar\n\n\n3 medium ripe bananas, mashed\n\n\n¼ cup coconut oil, melted\n\n\n¼ cup honey\n\n\n1 teaspoon vanilla extract\n\n\n3 cups almond flour\n\n\n1 teaspoon ground cinnamon\n\n\n¾ teaspoon baking powder\n\n\n½ teaspoon ground nutmeg\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C). Spray a 9x5-inch loaf pan with cooking spray."},{"recipe_directions":"Whisk eggs and vinegar together in a bowl. Stir in bananas, coconut oil, honey, and vanilla until blended."},{"recipe_directions":"Sift almond flour, cinnamon, baking powder, nutmeg, and salt together in a large bowl; stir into wet ingredients until well blended. Pour into the prepared bread pan."},{"recipe_directions":"Bake in the preheated oven until a knife inserted into the center comes out clean, about 1 hour; cover with foil if it begins to brown too much. Cool in the pan for 10 minutes, then remove loaf and cool completely on a wire rack."},{"recipe_directions":"Almond flour can be purchased in most health food stores, but I save money by grinding almonds in a food processor. Just watch and make sure you don't process it for too long, or it will turn into almond butter!"}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"332\nCalories\n\n\n17g \nFat\n\n\n32g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656755-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/urQkfF6kJJHXJZrJivBwIGaJcMA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/395077-c69313bbfe624bb5852a6a27f3359af2.jpg"
@@ -3139,59 +3300,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20446/amys-cilantro-cream-sauce/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Amy's Cilantro Cream Sauce</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package cream cheese, softened\n\n\n1 (7 ounce) can tomatillo salsa\n\n\n1 bunch fresh cilantro, chopped\n\n\n1 tablespoon sour cream\n\n\n1 tablespoon fresh lime juice\n\n\n2 teaspoons garlic powder\n\n\n1 teaspoon freshly ground black pepper\n\n\n1 teaspoon celery salt\n\n\n½ teaspoon ground cumin"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package cream cheese, softened\n\n\n1 (7 ounce) can tomatillo salsa\n\n\n1 bunch fresh cilantro, chopped\n\n\n1 tablespoon sour cream\n\n\n1 tablespoon fresh lime juice\n\n\n2 teaspoons garlic powder\n\n\n1 teaspoon freshly ground black pepper\n\n\n1 teaspoon celery salt\n\n\n½ teaspoon ground cumin'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cream cheese, tomatillo salsa, cilantro, sour cream, lime juice, garlic powder, pepper, celery salt, and cumin in a blender or food processor. Blend until smooth and creamy. Place in a serving bowl."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"230\nCalories\n\n\n21g \nFat\n\n\n7g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656760-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CPW7XZifzQECosdoTsXuqE8zb9E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5358904-6f7f70b3f9764c2ea3076c440996f64c.jpg"
@@ -3204,59 +3361,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17777/cod-fish-cakes/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Cod Fish Cakes</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 fish cakes"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large potatoes, peeled and halved\n\n\n1 pound cod fillets, cubed\n\n\n1 large egg, beaten\n\n\n1 tablespoon butter\n\n\n1 tablespoon grated onion\n\n\n1 tablespoon chopped fresh parsley\n\n\n3 tablespoons oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large potatoes, peeled and halved\n\n\n1 pound cod fillets, cubed\n\n\n1 large egg, beaten\n\n\n1 tablespoon butter\n\n\n1 tablespoon grated onion\n\n\n1 tablespoon chopped fresh parsley\n\n\n3 tablespoons oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place potatoes into a large pot and cover with salted water; bring to a boil. Reduce the heat to medium-low and simmer until almost tender, about 15 minutes. Add cod and continue to cook until cod and potatoes are both soft, about 5 more minutes."},{"recipe_directions":"Drain well and transfer to a large mixing bowl. Add egg, butter, onion, and parsley; mash until well combined, then form into four patties."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Add patties and cook until golden brown, 3 to 5 minutes per side. Drain on paper towels before serving."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"351\nCalories\n\n\n13g \nFat\n\n\n39g \nCarbs\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656765-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NI3noEXFOWx5yU-NQSDEYgrlXkY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1196607-24c2700a00ea42958847a35196cb99ec.jpg"
@@ -3269,59 +3422,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14821/liver-pate/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Liver Pâté</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound chicken livers\n\n\n1 medium onion, thinly sliced\n\n\n¾ cup butter, softened\n\n\n¼ cup chopped onion\n\n\n3 tablespoons cooking sherry\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon ground mace"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound chicken livers\n\n\n1 medium onion, thinly sliced\n\n\n¾ cup butter, softened\n\n\n¼ cup chopped onion\n\n\n3 tablespoons cooking sherry\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n⅛ teaspoon ground mace'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine livers and sliced onion in a medium saucepan. Pour in about 3 cups water and bring to a boil. Reduce the heat to low, cover, and simmer until liver is tender, about 20 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C). Remove from the heat and drain. Discard sliced onion, and remove and discard any hard portions of the livers."},{"recipe_directions":"Process cooked livers in a food processor until smooth. Add butter, chopped onion, sherry, butter, salt, pepper, and mace; pulse to blend. Form mixture into a mound with lightly greased hands. Place onto a serving platter; cover and chill for 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Pate Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"116\nCalories\n\n\n10g \nFat\n\n\n1g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656771-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ku8StbIVVUtbbZYBJzeaocZVlqg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/254954-chocolate-chip-cheese-ball-MomTo6-1x1-1-9897ab9c31ac43a5bb89780c11aa1534.jpg"
@@ -3335,59 +3484,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/26740/chocolate-chip-cheese-ball/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Chocolate Chip Cheese Ball</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n32"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package cream cheese, softened\n\n\n½ cup unsalted butter, softened\n\n\n¾ cup confectioners' sugar\n\n\n2 tablespoons brown sugar\n\n\n¼ teaspoon vanilla extract\n\n\n¾ cup miniature semisweet chocolate chips\n\n\n¾ cup finely chopped pecans"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 (8 ounce) package cream cheese, softened\n\n\n½ cup unsalted butter, softened\n\n\n¾ cup confectioners' sugar\n\n\n2 tablespoons brown sugar\n\n\n¼ teaspoon vanilla extract\n\n\n¾ cup miniature semisweet chocolate chips\n\n\n¾ cup finely chopped pecans"}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat cream cheese and butter in a medium bowl with an electric mixer until smooth. Mix in confectioners' sugar, brown sugar, and vanilla. Stir in chocolate chips. Cover and chill in the refrigerator for 2 hours."},{"recipe_directions":"Shape chilled cream cheese mixture into a ball. Wrap with plastic wrap and return to the refrigerator for 1 hour."},{"recipe_directions":"When ready to serve, remove and discard the plastic wrap. Roll cheese ball in pecans and place onto a serving platter."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"},{"recipe_tags":"Cold Cheese Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"102\nCalories\n\n\n8g \nFat\n\n\n7g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656777-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jxZUhXOI8wjx41DH3pgkN6oMm5o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8781792-4cd1d9fb50ae432da84b0e408cbff547.jpg"
@@ -3400,59 +3545,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13887/spinach-and-artichoke-dip/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Spinach and Artichoke Dip</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n24"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (14 ounce) can artichoke hearts, drained and chopped\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n1 cup mayonnaise\n\n\n2 ½ cups shredded Monterey Jack cheese\n\n\n1 cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (14 ounce) can artichoke hearts, drained and chopped\n\n\n1 (10 ounce) package frozen chopped spinach, thawed and drained\n\n\n1 cup mayonnaise\n\n\n2 ½ cups shredded Monterey Jack cheese\n\n\n1 cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a 1-quart baking dish."},{"recipe_directions":"Combine artichoke hearts, spinach, and mayonnaise in a bowl; mix in 2 cups Monterey Jack, then mix in Parmesan. Transfer to the prepared baking dish and sprinkle with remaining 1/2 cup Monterey Jack."},{"recipe_directions":"Bake in the preheated oven until cheese is melted, about 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Spinach Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"133\nCalories\n\n\n12g \nFat\n\n\n2g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656782-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8UX3gQxhGVERN3iu6s_I3NZlwu0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/665563-33b48cd48f894675b6fec9e980f92d50.jpg"
@@ -3465,59 +3606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14944/blt-dip/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>BLT Dip</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bacon\n\n\n1 cup mayonnaise\n\n\n1 cup sour cream\n\n\n1  tomato - peeled, seeded and diced"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bacon\n\n\n1 cup mayonnaise\n\n\n1 cup sour cream\n\n\n1  tomato - peeled, seeded and diced'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large skillet and cook over medium-high heat, turning occasionally, until evenly browned, about 10 minutes. Drain bacon slices on paper towels."},{"recipe_directions":"Combine mayonnaise and sour cream in a medium bowl. Crumble bacon into mayonnaise mixture; mix until combined. Stir in tomatoes right before serving."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"181\nCalories\n\n\n18g \nFat\n\n\n2g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656788-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tsnAEfQNNH3NrcYQ4xDCtFBG9ys=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/8768-ddmfs-sweet-spicy-wings-3X4-0076-b484a1db3199469385a540db0339f773.jpg"
@@ -3531,59 +3668,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8768/sweet-spicy-wings/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Sweet Spicy Wings</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 pounds chicken wings, separated at joints, tips discarded\n\n\n1 ½ cups Louisiana-style hot sauce\n\n\n1 cup honey\n\n\n¾ cup butter\n\n\n1 teaspoon cayenne pepper, or to taste\n\n\n1 pinch garlic salt\n\n\n1 pinch ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 pounds chicken wings, separated at joints, tips discarded\n\n\n1 ½ cups Louisiana-style hot sauce\n\n\n1 cup honey\n\n\n¾ cup butter\n\n\n1 teaspoon cayenne pepper, or to taste\n\n\n1 pinch garlic salt\n\n\n1 pinch ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for high heat. Lightly oil the grill grate."},{"recipe_directions":"Grill chicken on the preheated grill until the juices run clear, 8 to 12 minutes per side. Remove chicken to a large roasting pan."},{"recipe_directions":"Mix together hot sauce, honey, butter, cayenne pepper, garlic salt, and black pepper in a saucepan over medium heat. Simmer until blended and heated through, about 10 minutes."},{"recipe_directions":"Pour hot sauce over chicken and stir to coat."},{"recipe_directions":"You can deep fry or bake the chicken instead if you want to, but it is best when grilled."},{"recipe_directions":"The nutrition data for this recipe includes information for the full amount of the marinade ingredients. Depending on marinating time, ingredients, cooking method, etc., the actual amount of the marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Spicy"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"356\nCalories\n\n\n23g \nFat\n\n\n24g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656793-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pAolKDoRdMZAT8SXzPaHxM51Zbc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/35304-how-to-make-pico-de-gallo-VAT-hero-4x3-67d14bca3d36432ea7762cf3d8f3936e.jpg"
@@ -3597,59 +3730,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/35304/how-to-make-pico-de-gallo/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>How to Make Pico de Gallo</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 medium tomato, diced\n\n\n1  onion, finely chopped\n\n\n½  jalapeño pepper, seeded and chopped\n\n\n2 sprigs fresh cilantro, finely chopped\n\n\n1  green onion, finely chopped\n\n\n½ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon pepper"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 medium tomato, diced\n\n\n1  onion, finely chopped\n\n\n½  jalapeño pepper, seeded and chopped\n\n\n2 sprigs fresh cilantro, finely chopped\n\n\n1  green onion, finely chopped\n\n\n½ teaspoon garlic powder\n\n\n⅛ teaspoon salt\n\n\n⅛ teaspoon pepper'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pico de gallo is a fresh, tomato-based salsa that's found in Mexican cuisine. Wondering how to make delicious pico de gallo at home? You've come to the right place. Learn how to make, store, and serve the best pico de gallo of your life with this top-rated recipe."},{"recipe_directions":"Pico de gallo (a.k.a. salsa fresca) is a type of fresh salsa found in Mexican cuisine. Traditional ingredients include tomatoes, onions, serrano or jalapeno peppers, cilantro, and sometimes lime juice. Other spices and seasonings are often used. Since it contains less liquid than other salsa varieties, pico de gallo can be used in a variety of ways. It can be served with chips for dipping, used as a topping for tacos, or included as an ingredient in burritos and quesadillas."},{"recipe_directions":"Pico de gallo is sometimes called salsa bandera, or flag sauce, because it features all the colors of the Mexican flag (red tomatoes, green peppers and cilantro, and white onions)."},{"recipe_directions":"Making restaurant-worthy pico de gallo is easier than you think. You just need to follow a few simple steps. You'll find the full recipe below, but here's a brief overview of what you can expect:"},{"recipe_directions":"When it comes to pico de gallo, freshness is key. Use high-quality tomatoes that are ripe and vibrantly colored (Roma tomatoes work well). Since all the ingredients are in season during the summertime, pico de gallo makes a great seasonal dish."},{"recipe_directions":"Combine the diced tomatoes, onions, and peppers. Toss the veggies with the chopped cilantro and your seasonings."},{"recipe_directions":"Make sure to allow the pico de gallo to chill for at least 30 minutes to allow the flavors to meld."},{"recipe_directions":"Once again, fresh is best — so try to eat the pico de gallo the day it's made. If you need to keep it for longer, store it in an airtight container in the fridge for up to three days."},{"recipe_directions":"\"Beautiful, easy, and fast,\" raves Arpeggio Garden. \"We always use fresh garlic, but otherwise an excellent recipe! No need ever to buy salsa! Thanks for the lovely recipe!\""},{"recipe_directions":"\"Great recipe,\" says TAMI426. \"I used red onion and added the juice of one lime. I let it sit for about 30 minutes, before serving. It was delicious.\""},{"recipe_directions":"\"I made this for a make-your-own-taco buffet at work, and everyone loved it,\" Laura Brann. \"I agree that it's much tastier if you let the flavors mingle overnight.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Prep and gather all your ingredients."},{"recipe_directions":"Add tomato, onion, jalapeño pepper, cilantro and green onion in a medium bowl."},{"recipe_directions":"Season with garlic powder, salt, and pepper. Stir until evenly distributed."},{"recipe_directions":"Refrigerate for 30 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"21\nCalories\n\n\n0g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656799-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/j7fkHW0OHM8oeYyWQosgIM5S5gU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6785531-grilled-marinated-shrimp-Pat-J-1x1-1-3069b253b7ab43be9eafb468f96d2eec.jpg"
@@ -3663,59 +3792,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19484/grilled-marinated-shrimp/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Grilled Marinated Shrimp</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup olive oil\n\n\n¼ cup chopped fresh parsley\n\n\n1  lemon, juiced\n\n\n2 tablespoons hot pepper sauce\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon tomato paste\n\n\n2 teaspoons dried oregano\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n2 pounds large shrimp, peeled and deveined with tails attached\n\n\n6  skewers"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup olive oil\n\n\n¼ cup chopped fresh parsley\n\n\n1  lemon, juiced\n\n\n2 tablespoons hot pepper sauce\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon tomato paste\n\n\n2 teaspoons dried oregano\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n2 pounds large shrimp, peeled and deveined with tails attached\n\n\n6  skewers'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk olive oil, parsley, lemon juice, hot pepper sauce, garlic, tomato paste, oregano, salt, and black pepper together in a mixing bowl. Reserve a small amount for basting later. Pour remaining marinade into a large resealable plastic bag; add shrimp, coat with the marinade, squeeze out excess air, and seal the bag. Marinate in the refrigerator for 2 hours."},{"recipe_directions":"Preheat a grill to medium-low heat. Thread shrimp onto skewers, piercing once near the tail and once near the head. Discard marinade."},{"recipe_directions":"Lightly oil the grill grate. Cook shrimp until opaque, about 5 minutes per side, basting frequently with reserved marinade."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of marinade ingredients. The actual amount of marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Seafood"},{"recipe_tags":"Shrimp"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"447\nCalories\n\n\n38g \nFat\n\n\n4g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656803-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/X7WlKCEgBR3V8fwoEXfcEbUdG9Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/14373-GreekSaladi-mfs-4X3-0354-e8388819cafa4bae843ea433258aa03d.jpg"
@@ -3729,59 +3854,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14373/greek-salad-i/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Greek Salad</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head romaine lettuce- rinsed, dried and chopped\n\n\n1  cucumber, sliced\n\n\n2 large tomatoes, chopped\n\n\n1 (6 ounce) can pitted black olives\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n1  red onion, thinly sliced\n\n\n1 cup crumbled feta cheese\n\n\n6 tablespoons olive oil\n\n\n1  lemon, juiced\n\n\n1 teaspoon dried oregano\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head romaine lettuce- rinsed, dried and chopped\n\n\n1  cucumber, sliced\n\n\n2 large tomatoes, chopped\n\n\n1 (6 ounce) can pitted black olives\n\n\n1  green bell pepper, chopped\n\n\n1  red bell pepper, chopped\n\n\n1  red onion, thinly sliced\n\n\n1 cup crumbled feta cheese\n\n\n6 tablespoons olive oil\n\n\n1  lemon, juiced\n\n\n1 teaspoon dried oregano\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make a restaurant-worthy dish at home with this top-rated Greek salad recipe."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"This Greek salad is a delicious combination of romaine lettuce, sliced cucumbers, chopped tomatoes, pitted black olives (or Kalamata olives), red and green bell peppers, a red onion, and feta cheese."},{"recipe_directions":"The dressing is a simple mixture of olive oil, a juiced lemon, dried oregano, and ground black pepper."},{"recipe_directions":"Combine the salad ingredients in a large bowl, mix up the dressing in another bowl, and toss the salad in the dressing. That’s how easy it is to make Greek salad with a homemade dressing! You’ll find the full, step-by-step recipe below."},{"recipe_directions":"You can make the Greek salad dressing a few days in advance — just store it in the refrigerator until you’re ready to use it. We recommend throwing the salad ingredients just before serving for the most delicious results."},{"recipe_directions":"“This was so good,” raves one Allrecipes community member. “I made it for some friends that came over for dinner and it was a big hit. I will for sure make this often. It would be great for a light lunch.”"},{"recipe_directions":"“A simply wonderful salad,” raves one Allrecipes community member. “Very easy to prepare. The dressing works beautifully with the feta. I've made it several times in the past few weeks and loved it every time.”"},{"recipe_directions":"“All the flavors went well together and the dressing was nice and light,” says collegechef08. “I keep a lot of these ingredients on hand so I'll be making this often.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Combine romaine, cucumber, tomatoes, olives, bell peppers, and red onion in a large bowl; sprinkle with feta cheese."},{"recipe_directions":"Whisk olive oil, lemon juice, oregano, and black pepper together in a small bowl. Pour dressing over salad, toss well to combine, and serve."},{"recipe_directions":"Pour dressing over salad, toss well to combine, and serve."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Romaine Lettuce Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"265\nCalories\n\n\n22g \nFat\n\n\n14g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656808-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3iHQsyJ7uM24J8viIkhv42FxXmM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/32801-9f51f46d5a624f2ab1e6f55734676b47.jpg"
@@ -3794,59 +3915,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14831/dill-dip-iii/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Dill Dip</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 5 mins\n\n\nServings:\n32 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups mayonnaise\n\n\n2 cups sour cream\n\n\n3 tablespoons grated onion\n\n\n3 tablespoons dried dill weed\n\n\n1 ½ teaspoons seasoned salt, or more to taste\n\n\n1 tablespoon dried parsley"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups mayonnaise\n\n\n2 cups sour cream\n\n\n3 tablespoons grated onion\n\n\n3 tablespoons dried dill weed\n\n\n1 ½ teaspoons seasoned salt, or more to taste\n\n\n1 tablespoon dried parsley'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine mayonnaise, sour cream, onion, dill weed, seasoning salt, and parsley together in a bowl; cover and refrigerate overnight."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"131\nCalories\n\n\n14g \nFat\n\n\n1g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656812-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_nRmvmxNLNRH3MdZYH7aznuvB4o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3534210-super-easy-peanut-butter-cookies-Trusted-Brands-4x3-1-919351fc3ccd480695003de8a3fd3730.jpg"
@@ -3860,59 +3977,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246889/super-easy-peanut-butter-cookies/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Super Easy Peanut Butter Cookies</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n24 \n\n\nYield:\n24 cookies"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup KRAFT Smooth Peanut Butter\n\n\n½ cup white sugar\n\n\n1 large egg"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup KRAFT Smooth Peanut Butter\n\n\n½ cup white sugar\n\n\n1 large egg'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Mix together peanut butter, sugar, and egg in a large bowl until well blended."},{"recipe_directions":"Roll dough into 24 balls; place 4 inches apart on ungreased baking sheets. Flatten each ball with the back of a fork."},{"recipe_directions":"Bake in the preheated oven until lightly browned, about 20 minutes; do not overbake. Cool on the baking sheets for 5 minutes, then transfer to wire racks to cool completely."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"79\nCalories\n\n\n6g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656817-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YdcwIeXuAetaCh18wagKL84sAYU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/239616-buffalo-cauliflower-DDMFS-4x3-dbc3ece590024fa0bb3f45773f1d511a.jpg"
@@ -3926,59 +4039,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239616/buffalo-cauliflower/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Buffalo Cauliflower</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"olive oil cooking spray\n\n\n1 cup water\n\n\n¾ cup gluten-free baking flour (such as Premium Gold® Flax and Ancient Grains All-Purpose Flour)\n\n\n½ teaspoon garlic powder, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n2 heads  cauliflower, cut into bite-size pieces\n\n\n2 tablespoons butter\n\n\n½ cup hot pepper sauce (such as Frank's RedHot®)\n\n\n1 teaspoon honey"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "olive oil cooking spray\n\n\n1 cup water\n\n\n¾ cup gluten-free baking flour (such as Premium Gold® Flax and Ancient Grains All-Purpose Flour)\n\n\n½ teaspoon garlic powder, or to taste\n\n\n  salt and ground black pepper to taste\n\n\n2 heads  cauliflower, cut into bite-size pieces\n\n\n2 tablespoons butter\n\n\n½ cup hot pepper sauce (such as Frank's RedHot®)\n\n\n1 teaspoon honey"}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Lightly grease a baking sheet with cooking spray."},{"recipe_directions":"Whisk together water, flour, garlic powder, salt, and pepper in a large bowl until batter is smooth and somewhat runny."},{"recipe_directions":"Add cauliflower pieces to batter and mix until evenly coated; spread onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until lightly browned, 20 to 25 minutes. Set aside."},{"recipe_directions":"Melt butter in a saucepan over medium heat. Remove from heat; stir in hot pepper sauce and honey until smooth."},{"recipe_directions":"Brush hot sauce mixture over each cauliflower piece, repeating until all is used."},{"recipe_directions":"Return to the oven and bake until cauliflower is browned, about 10 minutes."},{"recipe_directions":"Let cool for 10 to 15 minutes before serving."},{"recipe_directions":"All-purpose flour can be used in place of gluten-free if desired. Since gluten-free flour uses less liquid than wheat flour, you may have to adjust the amount of liquid in the recipe."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the breading ingredients. The actual amount of the breading consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Spicy"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"218\nCalories\n\n\n7g \nFat\n\n\n36g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656821-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eV1C-Xj6fJCvLp9V0xTfFS_Y97Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/742989-ad23fc3b74634303bba7e8cc46d341df.jpg"
@@ -3991,59 +4100,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45291/smoked-fish-dip/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Smoked Fish Dip</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups flaked smoked whitefish\n\n\n4 tablespoons fat-free sour cream\n\n\n2 tablespoons fat-free mayonnaise\n\n\n4 drops hot pepper sauce, or to taste\n\n\n3 drops Worcestershire sauce, or to taste\n\n\n3 drops liquid smoke flavoring (Optional)\n\n\n1 pinch seafood seasoning, such as Old Bay\n\n\n  cracked black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups flaked smoked whitefish\n\n\n4 tablespoons fat-free sour cream\n\n\n2 tablespoons fat-free mayonnaise\n\n\n4 drops hot pepper sauce, or to taste\n\n\n3 drops Worcestershire sauce, or to taste\n\n\n3 drops liquid smoke flavoring (Optional)\n\n\n1 pinch seafood seasoning, such as Old Bay\n\n\n  cracked black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place whitefish, sour cream, and mayonnaise in the bowl of a food processor; season with hot pepper sauce, Worcestershire sauce, liquid smoke, seafood seasoning, and cracked black pepper. Blend until combined with a spread-like consistency."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"25\nCalories\n\n\n0g \nFat\n\n\n1g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656827-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1697/healthy-recipes/gluten-free/appetizers/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DRKbJTtqNLvBTvOx6uN8kLTQNQs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/260607-Basic-Keto-Cheese-Crisps-1x1-17-129363ae1e2c4de3a8d2877b2d6f993d.jpg"
@@ -4057,42 +4162,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260607/basic-keto-cheese-crisps/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Basic Keto Cheese Crisps</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n24 crisps"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line 2 baking sheets with parchment paper."},{"recipe_directions":"Shred generous amounts cheese."},{"recipe_directions":"Arrange cheese in 24 small heaps on the prepared baking sheets."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 7 minutes. Cool for 5 to 10 minutes before removing from baking sheets."},{"recipe_directions":"You can substitute mozzarella, Asiago, or Parmesan cheese for the Cheddar."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Snack Chip Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"139\nCalories\n\n\n11g \nFat\n\n\n0g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>